--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c63a892bcd5a4e1/Документы/RpaChallenge.Pix/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c63a892bcd5a4e1/Документы/GitHub/RpaChallenge.Pix/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="11_AD4DF75460589B3ACB7284101FD96D045ADEDDA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C7EB650-FED3-4413-8D3A-FD8AAD3CA6F8}"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c63a892bcd5a4e1/Документы/GitHub/RpaChallenge.Pix/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4DF75460589B3ACB7284101FD96D045ADEDDA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C7EB650-FED3-4413-8D3A-FD8AAD3CA6F8}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4DF75460589B3ACB7284101FD96D045ADEDDA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E4F092E-C565-4032-91AB-4839C0C15874}"/>
   <bookViews>
     <workbookView xWindow="20535" yWindow="7935" windowWidth="19245" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>https://www.rpachallenge.com/</t>
   </si>
   <si>
+    <t>Базовый url RpaChallenge</t>
+  </si>
+  <si>
+    <t>Тип браузера</t>
+  </si>
+  <si>
+    <t>RpaChallenge_DownloadUrl</t>
+  </si>
+  <si>
+    <t>https://rpachallenge.com/assets/downloadFiles/challenge.xlsx</t>
+  </si>
+  <si>
+    <t>Url для загрузки файла</t>
+  </si>
+  <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Базовый url RpaChallenge</t>
-  </si>
-  <si>
-    <t>Тип браузера</t>
-  </si>
-  <si>
-    <t>RpaChallenge_DownloadUrl</t>
-  </si>
-  <si>
-    <t>https://rpachallenge.com/assets/downloadFiles/challenge.xlsx</t>
-  </si>
-  <si>
-    <t>Url для загрузки файла</t>
   </si>
 </sst>
 </file>
@@ -141,6 +141,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -422,7 +426,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,18 +455,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,10 +474,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
